--- a/BackTest/2020-01-13 BackTest ARN.xlsx
+++ b/BackTest/2020-01-13 BackTest ARN.xlsx
@@ -3741,20 +3741,14 @@
         <v>205.9666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>192</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,20 +3776,14 @@
         <v>205.4183333333334</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>186</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3823,20 +3811,14 @@
         <v>204.8616666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>181.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,20 +3846,14 @@
         <v>204.4050000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>181.2</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3905,20 +3881,14 @@
         <v>204.1383333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>186</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3952,14 +3922,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K101" t="n">
+        <v>192</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3995,10 +3963,12 @@
       <c r="J102" t="n">
         <v>190.7</v>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>192</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -4034,9 +4004,11 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>182.1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+        <v>188.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>192</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,7 +4049,9 @@
       <c r="J104" t="n">
         <v>187.4</v>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>192</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,9 +4090,11 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>187.4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>192</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,7 +4135,9 @@
       <c r="J106" t="n">
         <v>188.4</v>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>192</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,9 +4176,11 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>188</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>188.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>192</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,15 +4213,15 @@
         <v>201.1533333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>188</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>192</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,15 +4254,15 @@
         <v>200.8483333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>189.4</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>192</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,15 +4295,15 @@
         <v>200.5733333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>189.2</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>192</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,15 +4336,15 @@
         <v>200.29</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>192</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>192</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,15 +4377,15 @@
         <v>199.9066666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>192</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>192</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,7 +4426,9 @@
       <c r="J113" t="n">
         <v>192</v>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>192</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,15 +4461,15 @@
         <v>199.4733333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>202.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>192</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,15 +4502,15 @@
         <v>199.3</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>204</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>192</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,15 +4543,15 @@
         <v>199.1233333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>204</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>192</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,15 +4584,15 @@
         <v>198.9966666666666</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>203</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>192</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,15 +4625,15 @@
         <v>198.8533333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>203</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>192</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,7 +4672,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>192</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4729,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>192</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,7 +4754,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>192</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,15 +4789,15 @@
         <v>198.4283333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>198</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>192</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,15 +4830,15 @@
         <v>198.295</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>198</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>192</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,15 +4871,15 @@
         <v>198.245</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>198</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>192</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,15 +4912,15 @@
         <v>198.245</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>202.6</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>192</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +4959,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>192</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,7 +5000,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>192</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5041,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>192</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>192</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>192</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,7 +5164,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>192</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>192</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5246,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>192</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,7 +5287,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>192</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,7 +5328,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>192</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,7 +5369,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>192</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,7 +5410,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>192</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,7 +5451,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>192</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,7 +5492,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>192</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,7 +5533,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>192</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,7 +5574,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>192</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,7 +5615,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>192</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,7 +5656,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>192</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>192</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,7 +5738,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>192</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5751,7 +5779,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>192</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5790,7 +5820,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>192</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>192</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5868,7 +5902,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>192</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5907,7 +5943,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>192</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5946,7 +5984,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>192</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,7 +6025,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>192</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,7 +6066,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>192</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,7 +6107,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>192</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,7 +6148,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>192</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6141,7 +6189,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>192</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6180,7 +6230,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>192</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,7 +6271,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>192</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6258,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>192</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,7 +6353,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>192</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,7 +6394,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>192</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6435,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>192</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,7 +6476,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>192</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,7 +6517,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>192</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6492,7 +6558,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>192</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,7 +6599,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>192</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,7 +6640,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>192</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6609,7 +6681,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>192</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6642,15 +6716,15 @@
         <v>199.5350000000001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>193</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>192</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6683,15 +6757,15 @@
         <v>199.5200000000001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>197</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>192</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6724,15 +6798,15 @@
         <v>199.5050000000001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>192</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>192</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6765,15 +6839,15 @@
         <v>199.5883333333335</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>192</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6806,15 +6880,15 @@
         <v>199.4966666666668</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>197</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>192</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,15 +6921,15 @@
         <v>199.2250000000002</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>192</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6888,15 +6962,15 @@
         <v>198.8950000000002</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>185.3</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>192</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,15 +7003,15 @@
         <v>198.8133333333335</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>191</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>192</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,15 +7044,15 @@
         <v>198.6150000000002</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>192</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,15 +7085,15 @@
         <v>198.5000000000002</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>192</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,15 +7126,15 @@
         <v>198.4966666666668</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>195.9</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>192</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7093,15 +7167,15 @@
         <v>198.4650000000002</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>196</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>192</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7134,15 +7208,15 @@
         <v>198.4650000000002</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>197</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>192</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7175,15 +7249,15 @@
         <v>198.5650000000002</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>192</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,15 +7290,15 @@
         <v>198.7300000000002</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>204</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>192</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,15 +7331,15 @@
         <v>198.9150000000002</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>207.9</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>192</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,7 +7378,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>192</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7343,7 +7419,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>192</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,7 +7460,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>192</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7421,7 +7501,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>192</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7460,7 +7542,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>192</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7499,7 +7583,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>192</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7538,7 +7624,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>192</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,7 +7665,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>192</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,16 +7703,20 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>192</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7650,11 +7744,17 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>192</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7685,11 +7785,17 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>192</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7720,11 +7826,17 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>192</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +7867,17 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>192</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7908,17 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>192</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7825,11 +7949,17 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>192</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7860,11 +7990,17 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>192</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7895,11 +8031,17 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>192</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +8072,17 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>192</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7968,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>192</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +8154,17 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>192</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8038,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>192</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8073,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>192</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8108,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>192</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8321,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>192</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>192</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8213,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>192</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8248,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>192</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8283,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>192</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8318,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>192</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8353,8 +8567,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>192</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8388,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>192</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8423,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>192</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8458,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>192</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8493,8 +8731,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>192</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8528,8 +8772,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>192</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>192</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8598,8 +8854,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>192</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8633,8 +8895,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>192</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8668,8 +8936,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>192</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8703,8 +8977,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>192</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8738,8 +9018,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>192</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9059,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>192</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8808,8 +9100,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>192</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8843,8 +9141,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>192</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8878,8 +9182,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>192</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8913,8 +9223,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>192</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8948,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>192</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8983,8 +9305,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>192</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9018,8 +9346,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>192</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9053,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>192</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9088,8 +9428,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>192</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9123,8 +9469,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>192</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9158,8 +9510,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>192</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9193,8 +9551,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>192</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9225,13 +9589,19 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>192</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M239" t="n">
-        <v>1</v>
+        <v>1.245</v>
       </c>
     </row>
     <row r="240">

--- a/BackTest/2020-01-13 BackTest ARN.xlsx
+++ b/BackTest/2020-01-13 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>122969.66390243</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>121669.93340243</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>227.1</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +782,15 @@
         <v>207265.17522728</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +819,15 @@
         <v>189519.47722728</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1041,15 @@
         <v>199289.56701632</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1115,15 @@
         <v>199181.21351632</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1489,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1526,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1563,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1600,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1637,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1674,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1711,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1748,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1785,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1822,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1859,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1896,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1933,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1970,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2007,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2044,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2081,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2118,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2155,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2192,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2229,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2266,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2303,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2340,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2377,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2414,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2451,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2488,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2525,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2562,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2599,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2636,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2673,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2710,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2747,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2784,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2821,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2858,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2895,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2932,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2969,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3006,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3043,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3080,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3117,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3154,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3191,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3228,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3265,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3302,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3339,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3376,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3413,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3450,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3487,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3524,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3561,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3598,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3635,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3672,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3709,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3746,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3783,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3820,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3857,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3894,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3927,15 @@
         <v>207250.87954572</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3964,15 @@
         <v>206416.88224572</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4001,15 @@
         <v>205965.46794572</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4038,15 @@
         <v>201557.12714572</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4079,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4116,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4153,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4190,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4227,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4264,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4301,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4338,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4375,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4412,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4449,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4486,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4523,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4560,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4597,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4634,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4671,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4708,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4745,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4782,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4819,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4856,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4893,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4930,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4967,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5004,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5041,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5078,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5115,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5152,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5189,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5226,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5263,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5300,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5337,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5374,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5411,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5448,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5485,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5522,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5559,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5596,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5633,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5670,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5707,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5744,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5781,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5818,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5855,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5892,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5929,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5966,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6003,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6040,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6077,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6114,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6151,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6188,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6225,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6262,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6299,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6336,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6373,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6410,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6447,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6484,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6521,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5900,7 +6558,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,15 +6591,13 @@
         <v>143446.9232766099</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>190.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -6338,16 +6998,18 @@
         <v>119941.2265766099</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
       <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -6377,7 +7039,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6410,7 +7076,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +7113,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6472,15 +7146,13 @@
         <v>137103.6629766099</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -7066,11 +7738,9 @@
         <v>122062.2044766099</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>203.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7142,11 +7812,9 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7181,11 +7849,9 @@
         <v>121353.5650766099</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7220,7 +7886,7 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>200</v>
@@ -7259,11 +7925,9 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>203.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7298,11 +7962,9 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>203.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7337,11 +7999,9 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>203.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7376,11 +8036,9 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>201.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7415,7 +8073,7 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>201.1</v>
@@ -7454,7 +8112,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>201.1</v>
@@ -7493,7 +8151,7 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>200</v>
@@ -7532,7 +8190,7 @@
         <v>110748.5018766099</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>200</v>
@@ -7571,7 +8229,7 @@
         <v>110534.4247766099</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>199.2</v>
@@ -7610,7 +8268,7 @@
         <v>110531.3775766099</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>198</v>
@@ -7649,7 +8307,7 @@
         <v>114366.5993766099</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>197.9</v>
@@ -7688,7 +8346,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>200.8</v>
@@ -7727,7 +8385,7 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>191.1</v>
@@ -7766,7 +8424,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>191.1</v>
@@ -7805,7 +8463,7 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>200</v>
@@ -7844,7 +8502,7 @@
         <v>115164.6707766099</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>200</v>
@@ -7883,7 +8541,7 @@
         <v>115141.9707766099</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>199.9</v>
@@ -7922,7 +8580,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>191.1</v>
@@ -7961,7 +8619,7 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>199.7</v>
@@ -8000,7 +8658,7 @@
         <v>115168.0069766099</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>199.7</v>
@@ -8039,7 +8697,7 @@
         <v>115161.0069766099</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>199.6</v>
@@ -8078,7 +8736,7 @@
         <v>114832.1533766099</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>199.5</v>
@@ -8117,7 +8775,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>192</v>
@@ -8156,7 +8814,7 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>197</v>
@@ -8195,7 +8853,7 @@
         <v>114788.3767766099</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>197</v>
@@ -8234,7 +8892,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>193</v>
@@ -8273,7 +8931,7 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>191.1</v>
@@ -8312,7 +8970,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>191.1</v>
@@ -8351,7 +9009,7 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>197</v>
@@ -8390,7 +9048,7 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>197</v>
@@ -8429,7 +9087,7 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>185.2</v>
@@ -8468,7 +9126,7 @@
         <v>108166.3602766099</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>185.2</v>
@@ -8507,7 +9165,7 @@
         <v>108166.3602766099</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>191.1</v>
@@ -8546,7 +9204,7 @@
         <v>108166.3602766099</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>191.1</v>
@@ -8585,7 +9243,7 @@
         <v>108502.3602766099</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>191.1</v>
@@ -8624,7 +9282,7 @@
         <v>111876.3455766099</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>195.9</v>
@@ -8663,7 +9321,7 @@
         <v>115288.8438766099</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>196</v>
@@ -8702,7 +9360,7 @@
         <v>124328.4591766099</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>197</v>
@@ -8741,7 +9399,7 @@
         <v>133832.7729766099</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>204</v>
@@ -8780,9 +9438,11 @@
         <v>145751.1204766099</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>207.9</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8817,9 +9477,11 @@
         <v>184224.6395766099</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>213.7</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9039,16 +9701,18 @@
         <v>212442.2609766099</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L250" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
       <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -9074,11 +9738,15 @@
         <v>221545.47547661</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +9775,15 @@
         <v>216486.1903766099</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +9812,15 @@
         <v>215652.5186766099</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9173,11 +9849,15 @@
         <v>217874.8240766099</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9206,11 +9886,15 @@
         <v>217383.4065766099</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +9923,15 @@
         <v>223795.3938524699</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9272,11 +9960,15 @@
         <v>223773.57855247</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9305,11 +9997,15 @@
         <v>223773.57855247</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +10034,15 @@
         <v>223776.57855247</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9371,11 +10071,15 @@
         <v>223771.94545247</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9404,11 +10108,15 @@
         <v>224048.43255247</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9441,7 +10149,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9470,11 +10182,15 @@
         <v>213929.63117081</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +10219,15 @@
         <v>225975.25639047</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9536,11 +10256,15 @@
         <v>223919.28189047</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9569,11 +10293,15 @@
         <v>223980.17426715</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9602,11 +10330,15 @@
         <v>223214.61886715</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9639,7 +10371,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9668,11 +10404,15 @@
         <v>213975.3547137899</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9705,7 +10445,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9738,7 +10482,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9771,7 +10519,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9804,7 +10556,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9837,7 +10593,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9870,7 +10630,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9903,7 +10667,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9936,7 +10704,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9969,7 +10741,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +10778,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10035,7 +10815,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10068,7 +10852,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10101,7 +10889,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10134,7 +10926,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10167,7 +10963,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10200,7 +11000,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10233,7 +11037,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10266,7 +11074,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10299,7 +11111,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10332,7 +11148,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10365,7 +11185,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11222,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10431,7 +11259,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10464,7 +11296,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10497,7 +11333,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10526,11 +11366,15 @@
         <v>359186.6273208099</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10559,11 +11403,15 @@
         <v>329043.15982081</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10592,11 +11440,15 @@
         <v>331271.53193081</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10625,11 +11477,15 @@
         <v>323971.88505867</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10658,11 +11514,15 @@
         <v>328925.3646117499</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10691,11 +11551,15 @@
         <v>277841.11073622</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +11588,15 @@
         <v>285759.41655472</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10757,11 +11625,15 @@
         <v>281151.6599306799</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10790,11 +11662,15 @@
         <v>284994.8670306799</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10823,11 +11699,15 @@
         <v>283769.9845306799</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10856,11 +11736,15 @@
         <v>284571.0980306799</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10889,11 +11773,15 @@
         <v>284571.0980306799</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10926,7 +11814,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10959,7 +11851,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10988,11 +11884,15 @@
         <v>284263.0100306799</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11021,11 +11921,15 @@
         <v>278837.6832306799</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11058,7 +11962,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11091,7 +11999,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11124,7 +12036,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11153,11 +12069,15 @@
         <v>314530.49576402</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11186,14 +12106,16 @@
         <v>313039.7283640199</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
@@ -11219,7 +12141,7 @@
         <v>308425.10986402</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11252,7 +12174,7 @@
         <v>308447.63346402</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11285,7 +12207,7 @@
         <v>308450.13346402</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11318,7 +12240,7 @@
         <v>306987.35497981</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11351,7 +12273,7 @@
         <v>303588.05848524</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11384,7 +12306,7 @@
         <v>303588.05848524</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11417,7 +12339,7 @@
         <v>308820.00969067</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11450,7 +12372,7 @@
         <v>309134.00969067</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11945,7 +12867,7 @@
         <v>290962.9344809201</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11978,7 +12900,7 @@
         <v>289176.3979809202</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12011,7 +12933,7 @@
         <v>289183.6812809202</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12044,7 +12966,7 @@
         <v>288837.2635809202</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12077,7 +12999,7 @@
         <v>287137.5679809202</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12110,7 +13032,7 @@
         <v>287477.5679809202</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12143,7 +13065,7 @@
         <v>284958.3254809202</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12176,7 +13098,7 @@
         <v>289374.5421074002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12209,7 +13131,7 @@
         <v>308952.8417074002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12242,7 +13164,7 @@
         <v>315414.9580422402</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12308,7 +13230,7 @@
         <v>325238.0785834101</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12341,7 +13263,7 @@
         <v>341974.7344786801</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12374,7 +13296,7 @@
         <v>347618.3714213001</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12407,7 +13329,7 @@
         <v>378577.5902634301</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12440,7 +13362,7 @@
         <v>357365.8184634301</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12473,7 +13395,7 @@
         <v>355893.4693634301</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12506,7 +13428,7 @@
         <v>356312.2425341601</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12539,7 +13461,7 @@
         <v>356630.2425341601</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12572,7 +13494,7 @@
         <v>348054.9151341601</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12605,7 +13527,7 @@
         <v>347564.3812341601</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12638,7 +13560,7 @@
         <v>363958.8306341601</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12671,7 +13593,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12704,7 +13626,7 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12737,7 +13659,7 @@
         <v>358237.9396341601</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12770,7 +13692,7 @@
         <v>357922.2777341601</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12803,7 +13725,7 @@
         <v>358088.64853416</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12836,7 +13758,7 @@
         <v>357705.0900341601</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12869,7 +13791,7 @@
         <v>357707.19003416</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12902,7 +13824,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12935,7 +13857,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12968,7 +13890,7 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13001,7 +13923,7 @@
         <v>348978.1082017301</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13034,7 +13956,7 @@
         <v>348609.6784017301</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13067,7 +13989,7 @@
         <v>348436.8914017301</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13100,7 +14022,7 @@
         <v>348137.6061017301</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13133,7 +14055,7 @@
         <v>348150.7104495501</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13166,7 +14088,7 @@
         <v>347126.9691495501</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13199,7 +14121,7 @@
         <v>345816.94404955</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13232,7 +14154,7 @@
         <v>352522.11514955</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13265,7 +14187,7 @@
         <v>353422.69695555</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13298,7 +14220,7 @@
         <v>353433.19051778</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13331,7 +14253,7 @@
         <v>353421.19051778</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13364,7 +14286,7 @@
         <v>354105.24691778</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13826,7 +14748,7 @@
         <v>351512.03757337</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13859,7 +14781,7 @@
         <v>352296.3543733699</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13892,7 +14814,7 @@
         <v>352296.3543733699</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13925,7 +14847,7 @@
         <v>352306.10918948</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13958,7 +14880,7 @@
         <v>352262.13378948</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13991,7 +14913,7 @@
         <v>352207.10468948</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14024,7 +14946,7 @@
         <v>352221.80565693</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14057,7 +14979,7 @@
         <v>348660.82635693</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14090,7 +15012,7 @@
         <v>337077.09225693</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14123,7 +15045,7 @@
         <v>338522.2501569299</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14156,7 +15078,7 @@
         <v>335019.1900569299</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14189,7 +15111,7 @@
         <v>339885.813888</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14222,7 +15144,7 @@
         <v>339385.813888</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14255,7 +15177,7 @@
         <v>338085.486288</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14288,7 +15210,7 @@
         <v>338138.444688</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14321,7 +15243,7 @@
         <v>337317.698388</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14354,7 +15276,7 @@
         <v>340559.454588</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14420,7 +15342,7 @@
         <v>334480.8916879999</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14453,7 +15375,7 @@
         <v>335761.8916879999</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14486,7 +15408,7 @@
         <v>335152.5507879999</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14519,7 +15441,7 @@
         <v>335152.5507879999</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14552,7 +15474,7 @@
         <v>335831.8558879999</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14563,6 +15485,6 @@
       <c r="M417" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ARN.xlsx
+++ b/BackTest/2020-01-13 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>122969.66390243</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>121669.93340243</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>227.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,15 +517,11 @@
         <v>123084.78750243</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,15 +550,11 @@
         <v>123081.78750243</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2710,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2747,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3302,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3339,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3413,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3450,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3561,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3598,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3709,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3746,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4375,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5004,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5078,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5152,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5226,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5263,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5300,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5411,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5448,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5744,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5892,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6040,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6373,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6447,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6484,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6595,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6632,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6669,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6743,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6854,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6965,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7076,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7113,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7187,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7224,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7261,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7298,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7335,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7409,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7483,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7520,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7594,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7668,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7705,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7886,17 +7084,11 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7929,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7966,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8003,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8073,17 +7249,11 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>201.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8112,17 +7282,11 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>201.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8151,17 +7315,11 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8190,17 +7348,11 @@
         <v>110748.5018766099</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8229,17 +7381,11 @@
         <v>110534.4247766099</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>199.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8268,17 +7414,11 @@
         <v>110531.3775766099</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8307,17 +7447,11 @@
         <v>114366.5993766099</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>197.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8346,17 +7480,11 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>200.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8385,17 +7513,11 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8424,17 +7546,11 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8463,17 +7579,11 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8502,17 +7612,11 @@
         <v>115164.6707766099</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8541,17 +7645,11 @@
         <v>115141.9707766099</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>199.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8580,17 +7678,11 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8619,17 +7711,11 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>199.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8658,17 +7744,11 @@
         <v>115168.0069766099</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>199.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8697,17 +7777,11 @@
         <v>115161.0069766099</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>199.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8736,17 +7810,11 @@
         <v>114832.1533766099</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>199.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8775,17 +7843,11 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8814,17 +7876,11 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8853,17 +7909,11 @@
         <v>114788.3767766099</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8892,17 +7942,11 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8931,17 +7975,11 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8970,17 +8008,11 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9009,17 +8041,11 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9048,17 +8074,11 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9095,7 +8115,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -9438,11 +8458,9 @@
         <v>145751.1204766099</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>207.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9477,11 +8495,9 @@
         <v>184224.6395766099</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>213.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -12106,16 +11122,18 @@
         <v>313039.7283640199</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L315" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
       <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
@@ -12141,11 +11159,15 @@
         <v>308425.10986402</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12174,11 +11196,15 @@
         <v>308447.63346402</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12207,11 +11233,15 @@
         <v>308450.13346402</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12240,11 +11270,15 @@
         <v>306987.35497981</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12273,11 +11307,15 @@
         <v>303588.05848524</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12306,11 +11344,15 @@
         <v>303588.05848524</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12339,11 +11381,15 @@
         <v>308820.00969067</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12372,11 +11418,15 @@
         <v>309134.00969067</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12409,7 +11459,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12442,7 +11496,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12475,7 +11533,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12508,7 +11570,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12541,7 +11607,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12574,7 +11644,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12607,7 +11681,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12640,7 +11718,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12673,7 +11755,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12706,7 +11792,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12739,7 +11829,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12772,7 +11866,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12805,7 +11903,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12838,7 +11940,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12867,11 +11973,15 @@
         <v>290962.9344809201</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12900,11 +12010,15 @@
         <v>289176.3979809202</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12933,11 +12047,15 @@
         <v>289183.6812809202</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12966,11 +12084,15 @@
         <v>288837.2635809202</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12999,11 +12121,15 @@
         <v>287137.5679809202</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13032,11 +12158,15 @@
         <v>287477.5679809202</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13065,11 +12195,15 @@
         <v>284958.3254809202</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13098,11 +12232,15 @@
         <v>289374.5421074002</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13131,11 +12269,15 @@
         <v>308952.8417074002</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13164,11 +12306,15 @@
         <v>315414.9580422402</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13201,7 +12347,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +12380,15 @@
         <v>325238.0785834101</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13263,11 +12417,15 @@
         <v>341974.7344786801</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13296,11 +12454,15 @@
         <v>347618.3714213001</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +12491,15 @@
         <v>378577.5902634301</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +12528,15 @@
         <v>357365.8184634301</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +12565,15 @@
         <v>355893.4693634301</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +12602,15 @@
         <v>356312.2425341601</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13461,11 +12639,15 @@
         <v>356630.2425341601</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13498,7 +12680,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13531,7 +12717,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13560,11 +12750,15 @@
         <v>363958.8306341601</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +12791,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13630,7 +12828,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13663,7 +12865,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13692,11 +12898,15 @@
         <v>357922.2777341601</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13725,11 +12935,15 @@
         <v>358088.64853416</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +12972,15 @@
         <v>357705.0900341601</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13791,11 +13009,15 @@
         <v>357707.19003416</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13824,11 +13046,15 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13857,11 +13083,15 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13890,11 +13120,15 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13923,11 +13157,15 @@
         <v>348978.1082017301</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13956,11 +13194,15 @@
         <v>348609.6784017301</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13989,11 +13231,15 @@
         <v>348436.8914017301</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14022,11 +13268,15 @@
         <v>348137.6061017301</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14055,11 +13305,15 @@
         <v>348150.7104495501</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14088,11 +13342,15 @@
         <v>347126.9691495501</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14121,11 +13379,15 @@
         <v>345816.94404955</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14154,11 +13416,15 @@
         <v>352522.11514955</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14187,11 +13453,15 @@
         <v>353422.69695555</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14220,11 +13490,15 @@
         <v>353433.19051778</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14253,11 +13527,15 @@
         <v>353421.19051778</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14286,11 +13564,15 @@
         <v>354105.24691778</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14323,7 +13605,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14356,7 +13642,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14389,7 +13679,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14422,7 +13716,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14455,7 +13753,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14488,7 +13790,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14521,7 +13827,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14554,7 +13864,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14587,7 +13901,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14620,7 +13938,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14653,7 +13975,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14686,7 +14012,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14719,7 +14049,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14752,7 +14086,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14785,7 +14123,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14814,11 +14156,15 @@
         <v>352296.3543733699</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14847,11 +14193,15 @@
         <v>352306.10918948</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14880,11 +14230,15 @@
         <v>352262.13378948</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14913,11 +14267,15 @@
         <v>352207.10468948</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14946,11 +14304,15 @@
         <v>352221.80565693</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +14341,15 @@
         <v>348660.82635693</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15012,11 +14378,15 @@
         <v>337077.09225693</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15045,11 +14415,15 @@
         <v>338522.2501569299</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15078,11 +14452,15 @@
         <v>335019.1900569299</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15111,11 +14489,15 @@
         <v>339885.813888</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15144,11 +14526,15 @@
         <v>339385.813888</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15177,11 +14563,15 @@
         <v>338085.486288</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15210,11 +14600,15 @@
         <v>338138.444688</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15243,11 +14637,15 @@
         <v>337317.698388</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +14674,15 @@
         <v>340559.454588</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15313,7 +14715,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15346,7 +14752,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15375,11 +14785,15 @@
         <v>335761.8916879999</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15408,11 +14822,15 @@
         <v>335152.5507879999</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15445,7 +14863,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15478,13 +14900,17 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
       <c r="M417" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ARN.xlsx
+++ b/BackTest/2020-01-13 BackTest ARN.xlsx
@@ -484,7 +484,7 @@
         <v>121669.93340243</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>123084.78750243</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>123081.78750243</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -6985,11 +6985,17 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>203.7</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7024,17 @@
         <v>121735.9561766099</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>201</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7063,17 @@
         <v>121353.5650766099</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>201</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7102,17 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>200</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7141,17 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>203.7</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7180,17 @@
         <v>121356.9400766099</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>203.7</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7219,17 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>203.7</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7258,17 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>201.1</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7297,17 @@
         <v>121347.9400766099</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>201.1</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7336,17 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>201.1</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7375,17 @@
         <v>110903.5933766099</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>200</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7414,17 @@
         <v>110748.5018766099</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>200</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7453,17 @@
         <v>110534.4247766099</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>199.2</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7492,17 @@
         <v>110531.3775766099</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>198</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7531,17 @@
         <v>114366.5993766099</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>197.9</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7570,17 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>200.8</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7609,17 @@
         <v>114283.5993766099</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7648,17 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7687,17 @@
         <v>115168.6503766099</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>200</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7726,17 @@
         <v>115164.6707766099</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>200</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7765,17 @@
         <v>115141.9707766099</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>199.9</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7804,17 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7843,17 @@
         <v>115171.9888766099</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>199.7</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7882,17 @@
         <v>115168.0069766099</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>199.7</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7921,17 @@
         <v>115161.0069766099</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>199.6</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7960,17 @@
         <v>114832.1533766099</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>199.5</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7999,17 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>192</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8038,17 @@
         <v>115006.8533766099</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>197</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8077,17 @@
         <v>114788.3767766099</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>197</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8116,17 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>193</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8155,17 @@
         <v>104974.2961766099</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8194,17 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>191.1</v>
+      </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8233,17 @@
         <v>109898.5984766099</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>197</v>
+      </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8272,17 @@
         <v>108026.5987766099</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>197</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8115,7 +8319,7 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -8458,9 +8662,11 @@
         <v>145751.1204766099</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>207.9</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8495,9 +8701,11 @@
         <v>184224.6395766099</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>213.7</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8532,9 +8740,11 @@
         <v>193239.85237661</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>214</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8569,9 +8779,11 @@
         <v>190319.27657661</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>219</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -10419,18 +10631,16 @@
         <v>329043.15982081</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
@@ -10456,15 +10666,11 @@
         <v>331271.53193081</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10493,15 +10699,11 @@
         <v>323971.88505867</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10530,15 +10732,11 @@
         <v>328925.3646117499</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10567,15 +10765,11 @@
         <v>277841.11073622</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10604,15 +10798,11 @@
         <v>285759.41655472</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10641,15 +10831,11 @@
         <v>281151.6599306799</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10682,11 +10868,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10719,11 +10901,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10756,11 +10934,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10967,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10830,11 +11000,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10867,11 +11033,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10904,11 +11066,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10941,11 +11099,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11132,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11015,11 +11165,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11052,11 +11198,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +11231,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11126,11 +11264,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11159,15 +11293,11 @@
         <v>308425.10986402</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11196,15 +11326,11 @@
         <v>308447.63346402</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11233,15 +11359,11 @@
         <v>308450.13346402</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11270,15 +11392,11 @@
         <v>306987.35497981</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11307,15 +11425,11 @@
         <v>303588.05848524</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +11462,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +11495,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11418,15 +11524,11 @@
         <v>309134.00969067</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11455,15 +11557,11 @@
         <v>304556.20989067</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11496,11 +11594,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11533,11 +11627,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +11660,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +11693,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +11726,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11759,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11718,11 +11792,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11755,11 +11825,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11792,11 +11858,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11829,11 +11891,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11866,11 +11924,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11903,11 +11957,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11940,11 +11990,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11977,11 +12023,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12014,11 +12056,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +12089,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12088,11 +12122,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12125,11 +12155,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12162,11 +12188,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12221,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12236,11 +12254,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12273,11 +12287,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12310,11 +12320,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12347,11 +12353,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12384,11 +12386,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +12419,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +12452,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12491,15 +12481,11 @@
         <v>378577.5902634301</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12528,15 +12514,11 @@
         <v>357365.8184634301</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12565,15 +12547,11 @@
         <v>355893.4693634301</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12602,15 +12580,11 @@
         <v>356312.2425341601</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12639,15 +12613,11 @@
         <v>356630.2425341601</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12676,15 +12646,11 @@
         <v>348054.9151341601</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12713,15 +12679,11 @@
         <v>347564.3812341601</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12750,15 +12712,11 @@
         <v>363958.8306341601</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12787,15 +12745,11 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12824,15 +12778,11 @@
         <v>355921.8012341601</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12861,15 +12811,11 @@
         <v>358237.9396341601</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12898,15 +12844,11 @@
         <v>357922.2777341601</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12935,15 +12877,11 @@
         <v>358088.64853416</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12972,15 +12910,11 @@
         <v>357705.0900341601</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13009,15 +12943,11 @@
         <v>357707.19003416</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13046,15 +12976,11 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13083,15 +13009,11 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13120,15 +13042,11 @@
         <v>350707.5004017301</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13157,15 +13075,11 @@
         <v>348978.1082017301</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13198,11 +13112,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13231,15 +13141,11 @@
         <v>348436.8914017301</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13268,15 +13174,11 @@
         <v>348137.6061017301</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13305,15 +13207,11 @@
         <v>348150.7104495501</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13342,15 +13240,11 @@
         <v>347126.9691495501</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13379,15 +13273,11 @@
         <v>345816.94404955</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13416,15 +13306,11 @@
         <v>352522.11514955</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13453,15 +13339,11 @@
         <v>353422.69695555</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13490,15 +13372,11 @@
         <v>353433.19051778</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13527,15 +13405,11 @@
         <v>353421.19051778</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13564,15 +13438,11 @@
         <v>354105.24691778</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13601,15 +13471,11 @@
         <v>360186.83461778</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13638,15 +13504,11 @@
         <v>360174.83461778</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13675,15 +13537,11 @@
         <v>360184.28073199</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13712,15 +13570,11 @@
         <v>355462.50663199</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13749,15 +13603,11 @@
         <v>355462.50663199</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13786,15 +13636,11 @@
         <v>353921.62034924</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13823,15 +13669,11 @@
         <v>353960.04707337</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13860,15 +13702,11 @@
         <v>353460.04707337</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13897,15 +13735,11 @@
         <v>353460.04707337</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13938,11 +13772,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13975,11 +13805,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14012,11 +13838,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14049,11 +13871,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14086,11 +13904,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14123,11 +13937,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14160,11 +13970,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14197,11 +14003,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14234,11 +14036,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14271,11 +14069,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14308,11 +14102,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14345,11 +14135,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14382,11 +14168,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14419,11 +14201,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14456,11 +14234,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14493,11 +14267,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14530,11 +14300,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14567,11 +14333,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14604,11 +14366,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14399,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14678,11 +14432,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14715,11 +14465,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14752,11 +14498,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14789,11 +14531,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14826,11 +14564,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14863,11 +14597,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14900,11 +14630,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
